--- a/templates/issue-template.xlsx
+++ b/templates/issue-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\cdmgtri\niem-mapping-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\cdmgtri\niem-mapping-app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="QA issues" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'QA issues'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'QA issues'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tab</t>
   </si>
@@ -36,10 +36,28 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>NDR</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Applicability</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Problem Value</t>
   </si>
 </sst>
 </file>
@@ -560,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -572,6 +590,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -895,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -909,10 +930,15 @@
     <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -926,14 +952,32 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2"/>
+  <autoFilter ref="A1:L1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>